--- a/excel_reports/Justin_Cohen.xlsx
+++ b/excel_reports/Justin_Cohen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10810" uniqueCount="2429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="2425">
   <si>
     <t>Policy Record</t>
   </si>
@@ -6191,6 +6191,15 @@
     <t>05-17-2022</t>
   </si>
   <si>
+    <t>3168568188</t>
+  </si>
+  <si>
+    <t>15170851</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens (PPO)</t>
+  </si>
+  <si>
     <t>3888894220</t>
   </si>
   <si>
@@ -6200,15 +6209,6 @@
     <t>UnitedHealthcare Dual Complete® LP (HMO-POS D-SNP)H5253-059-000</t>
   </si>
   <si>
-    <t>3168568188</t>
-  </si>
-  <si>
-    <t>15170851</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Walgreens (PPO)</t>
-  </si>
-  <si>
     <t>3168457338</t>
   </si>
   <si>
@@ -6827,15 +6827,6 @@
     <t>3172310968</t>
   </si>
   <si>
-    <t>3172297271</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
     <t>3172219259</t>
   </si>
   <si>
@@ -6885,9 +6876,6 @@
   </si>
   <si>
     <t>3172219028</t>
-  </si>
-  <si>
-    <t>3362989408</t>
   </si>
   <si>
     <t>4023359358</t>
@@ -7720,12 +7708,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B2" s="2">
         <v>324</v>
@@ -7733,7 +7721,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="B3" s="2">
         <v>450</v>
@@ -7741,18 +7729,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -7761,7 +7749,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -7769,30 +7757,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -7801,12 +7789,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B12" s="2">
         <v>88</v>
@@ -7814,7 +7802,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -7822,20 +7810,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -7844,12 +7832,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="B20">
         <v>74</v>
@@ -7857,15 +7845,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7873,7 +7861,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -7882,7 +7870,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -7891,7 +7879,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -7899,7 +7887,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B27">
         <v>22</v>
@@ -7907,7 +7895,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -7915,7 +7903,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -7924,7 +7912,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -9192,7 +9180,7 @@
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>34</v>
@@ -9433,7 +9421,7 @@
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>34</v>
@@ -9466,7 +9454,7 @@
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>34</v>
@@ -9734,7 +9722,7 @@
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>34</v>
@@ -10171,7 +10159,7 @@
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>34</v>
@@ -10237,7 +10225,7 @@
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>34</v>
@@ -33420,7 +33408,7 @@
         <v>34</v>
       </c>
       <c r="L854" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M854" t="s">
         <v>165</v>
@@ -33926,7 +33914,7 @@
         <v>34</v>
       </c>
       <c r="L874" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M874" t="s">
         <v>202</v>
@@ -33935,7 +33923,7 @@
         <v>82</v>
       </c>
       <c r="Q874" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S874" s="10" t="s">
         <v>458</v>
@@ -34305,7 +34293,7 @@
         <v>2057</v>
       </c>
       <c r="C890" s="8" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
       <c r="D890" s="8" t="s">
         <v>220</v>
@@ -34332,16 +34320,16 @@
         <v>34</v>
       </c>
       <c r="L890" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M890" t="s">
-        <v>202</v>
+        <v>537</v>
       </c>
       <c r="N890" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="Q890" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S890" s="10" t="s">
         <v>458</v>
@@ -34355,7 +34343,7 @@
         <v>2060</v>
       </c>
       <c r="C892" s="8" t="s">
-        <v>385</v>
+        <v>219</v>
       </c>
       <c r="D892" s="8" t="s">
         <v>220</v>
@@ -34385,10 +34373,10 @@
         <v>19</v>
       </c>
       <c r="M892" t="s">
-        <v>537</v>
+        <v>202</v>
       </c>
       <c r="N892" t="s">
-        <v>456</v>
+        <v>35</v>
       </c>
       <c r="Q892" s="8" t="s">
         <v>457</v>
@@ -35288,7 +35276,7 @@
         <v>34</v>
       </c>
       <c r="L928" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M928" t="s">
         <v>306</v>
@@ -35297,7 +35285,7 @@
         <v>41</v>
       </c>
       <c r="Q928" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S928" s="10" t="s">
         <v>458</v>
@@ -35644,7 +35632,7 @@
         <v>34</v>
       </c>
       <c r="L942" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M942" t="s">
         <v>238</v>
@@ -35653,7 +35641,7 @@
         <v>41</v>
       </c>
       <c r="Q942" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S942" s="10" t="s">
         <v>458</v>
@@ -35844,7 +35832,7 @@
         <v>195</v>
       </c>
       <c r="J950" s="8" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="K950" t="s">
         <v>34</v>
@@ -36150,7 +36138,7 @@
         <v>34</v>
       </c>
       <c r="L962" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M962" t="s">
         <v>197</v>
@@ -36159,7 +36147,7 @@
         <v>82</v>
       </c>
       <c r="Q962" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S962" s="10" t="s">
         <v>458</v>
@@ -37680,7 +37668,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T210"/>
+  <dimension ref="A1:T206"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38498,19 +38486,19 @@
         <v>2268</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>574</v>
+        <v>385</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>2269</v>
+        <v>452</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>2270</v>
+        <v>453</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>452</v>
@@ -38531,24 +38519,24 @@
         <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="N36" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>385</v>
+        <v>716</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>452</v>
@@ -38575,24 +38563,24 @@
         <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="N38" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>716</v>
+        <v>321</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>717</v>
+        <v>322</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>452</v>
@@ -38616,27 +38604,27 @@
         <v>2244</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M40" t="s">
-        <v>718</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>322</v>
+        <v>778</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>452</v>
@@ -38660,24 +38648,24 @@
         <v>2244</v>
       </c>
       <c r="L42" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>1263</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>247</v>
+        <v>784</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>778</v>
@@ -38707,24 +38695,24 @@
         <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>1263</v>
+        <v>636</v>
       </c>
       <c r="N44" t="s">
-        <v>21</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>452</v>
@@ -38751,24 +38739,24 @@
         <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>636</v>
+        <v>811</v>
       </c>
       <c r="N46" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>809</v>
+        <v>579</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>810</v>
+        <v>261</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>452</v>
@@ -38795,24 +38783,24 @@
         <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>811</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s">
-        <v>470</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>579</v>
+        <v>183</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>261</v>
+        <v>852</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>452</v>
@@ -38839,24 +38827,24 @@
         <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>394</v>
+        <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>852</v>
+        <v>172</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>452</v>
@@ -38883,7 +38871,7 @@
         <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="N52" t="s">
         <v>41</v>
@@ -38891,16 +38879,16 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>171</v>
+        <v>867</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>172</v>
+        <v>868</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>452</v>
@@ -38927,24 +38915,24 @@
         <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>1480</v>
       </c>
       <c r="N54" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="7" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>452</v>
@@ -38961,9 +38949,6 @@
       <c r="I56" s="8" t="s">
         <v>2242</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>2243</v>
-      </c>
       <c r="K56" t="s">
         <v>2244</v>
       </c>
@@ -38971,24 +38956,24 @@
         <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>1480</v>
+        <v>879</v>
       </c>
       <c r="N56" t="s">
-        <v>21</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>877</v>
+        <v>53</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>878</v>
+        <v>911</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>452</v>
@@ -39005,6 +38990,9 @@
       <c r="I58" s="8" t="s">
         <v>2242</v>
       </c>
+      <c r="J58" s="8" t="s">
+        <v>2243</v>
+      </c>
       <c r="K58" t="s">
         <v>2244</v>
       </c>
@@ -39012,24 +39000,24 @@
         <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>53</v>
+        <v>919</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>452</v>
@@ -39056,7 +39044,7 @@
         <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>912</v>
+        <v>636</v>
       </c>
       <c r="N60" t="s">
         <v>464</v>
@@ -39064,16 +39052,16 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>452</v>
@@ -39100,24 +39088,24 @@
         <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>636</v>
+        <v>1570</v>
       </c>
       <c r="N62" t="s">
-        <v>464</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>938</v>
+        <v>356</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>939</v>
+        <v>357</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>452</v>
@@ -39141,24 +39129,24 @@
         <v>2244</v>
       </c>
       <c r="L64" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M64" t="s">
-        <v>1570</v>
+        <v>81</v>
       </c>
       <c r="N64" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>357</v>
@@ -39188,7 +39176,7 @@
         <v>80</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -39196,16 +39184,16 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>360</v>
+        <v>954</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>357</v>
+        <v>955</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>452</v>
@@ -39229,27 +39217,27 @@
         <v>2244</v>
       </c>
       <c r="L68" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>346</v>
+        <v>2259</v>
       </c>
       <c r="N68" t="s">
-        <v>41</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>452</v>
@@ -39273,33 +39261,33 @@
         <v>2244</v>
       </c>
       <c r="L70" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M70" t="s">
-        <v>2259</v>
+        <v>197</v>
       </c>
       <c r="N70" t="s">
-        <v>464</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>958</v>
+        <v>1025</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>959</v>
+        <v>1026</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>2269</v>
+        <v>452</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>2270</v>
+        <v>453</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>452</v>
@@ -39320,24 +39308,24 @@
         <v>19</v>
       </c>
       <c r="M72" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="N72" t="s">
-        <v>2222</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>965</v>
+        <v>1018</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>966</v>
+        <v>1019</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>967</v>
+        <v>1020</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>452</v>
@@ -39361,24 +39349,24 @@
         <v>2244</v>
       </c>
       <c r="L74" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>197</v>
+        <v>733</v>
       </c>
       <c r="N74" t="s">
-        <v>82</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>1020</v>
@@ -39408,21 +39396,21 @@
         <v>19</v>
       </c>
       <c r="M76" t="s">
-        <v>733</v>
+        <v>2261</v>
       </c>
       <c r="N76" t="s">
-        <v>1361</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>1020</v>
@@ -39452,24 +39440,24 @@
         <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>733</v>
+        <v>2261</v>
       </c>
       <c r="N78" t="s">
-        <v>1361</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1028</v>
+        <v>1049</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>1029</v>
+        <v>1050</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>452</v>
@@ -39496,24 +39484,24 @@
         <v>19</v>
       </c>
       <c r="M80" t="s">
-        <v>2261</v>
+        <v>1182</v>
       </c>
       <c r="N80" t="s">
-        <v>179</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1023</v>
+        <v>760</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1020</v>
+        <v>233</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>452</v>
@@ -39531,7 +39519,7 @@
         <v>2242</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>2243</v>
+        <v>2292</v>
       </c>
       <c r="K82" t="s">
         <v>2244</v>
@@ -39540,24 +39528,24 @@
         <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>2261</v>
+        <v>1350</v>
       </c>
       <c r="N82" t="s">
-        <v>464</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1049</v>
+        <v>1122</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1050</v>
+        <v>175</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>452</v>
@@ -39584,24 +39572,24 @@
         <v>19</v>
       </c>
       <c r="M84" t="s">
-        <v>1182</v>
+        <v>1061</v>
       </c>
       <c r="N84" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>760</v>
+        <v>1119</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>233</v>
+        <v>1120</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>452</v>
@@ -39619,7 +39607,7 @@
         <v>2242</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>2296</v>
+        <v>2243</v>
       </c>
       <c r="K86" t="s">
         <v>2244</v>
@@ -39628,24 +39616,24 @@
         <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>1350</v>
+        <v>1292</v>
       </c>
       <c r="N86" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>175</v>
+        <v>1125</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>452</v>
@@ -39672,24 +39660,24 @@
         <v>19</v>
       </c>
       <c r="M88" t="s">
-        <v>1061</v>
+        <v>1361</v>
       </c>
       <c r="N88" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1119</v>
+        <v>1134</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>452</v>
@@ -39716,24 +39704,24 @@
         <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>1292</v>
+        <v>879</v>
       </c>
       <c r="N90" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>452</v>
@@ -39760,24 +39748,24 @@
         <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>1361</v>
+        <v>879</v>
       </c>
       <c r="N92" t="s">
-        <v>464</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1133</v>
+        <v>1196</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1134</v>
+        <v>1197</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1131</v>
+        <v>1198</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>452</v>
@@ -39804,24 +39792,24 @@
         <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>879</v>
+        <v>1224</v>
       </c>
       <c r="N94" t="s">
-        <v>179</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1129</v>
+        <v>1204</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1130</v>
+        <v>134</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1131</v>
+        <v>1205</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>452</v>
@@ -39848,24 +39836,24 @@
         <v>19</v>
       </c>
       <c r="M96" t="s">
-        <v>879</v>
+        <v>1206</v>
       </c>
       <c r="N96" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>452</v>
@@ -39892,24 +39880,24 @@
         <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>1224</v>
+        <v>1361</v>
       </c>
       <c r="N98" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1204</v>
+        <v>1236</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>134</v>
+        <v>1050</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1205</v>
+        <v>1237</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>452</v>
@@ -39936,24 +39924,24 @@
         <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>1206</v>
+        <v>1387</v>
       </c>
       <c r="N100" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1208</v>
+        <v>1243</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1209</v>
+        <v>1244</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1210</v>
+        <v>1245</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>452</v>
@@ -39971,7 +39959,7 @@
         <v>2242</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>2243</v>
+        <v>2303</v>
       </c>
       <c r="K102" t="s">
         <v>2244</v>
@@ -39980,24 +39968,24 @@
         <v>19</v>
       </c>
       <c r="M102" t="s">
-        <v>1361</v>
+        <v>548</v>
       </c>
       <c r="N102" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1236</v>
+        <v>1319</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1050</v>
+        <v>1320</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1237</v>
+        <v>743</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>452</v>
@@ -40024,24 +40012,24 @@
         <v>19</v>
       </c>
       <c r="M104" t="s">
-        <v>1387</v>
+        <v>513</v>
       </c>
       <c r="N104" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1243</v>
+        <v>1322</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1244</v>
+        <v>1323</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1245</v>
+        <v>1324</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>452</v>
@@ -40059,7 +40047,7 @@
         <v>2242</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>2307</v>
+        <v>2255</v>
       </c>
       <c r="K106" t="s">
         <v>2244</v>
@@ -40068,24 +40056,24 @@
         <v>19</v>
       </c>
       <c r="M106" t="s">
-        <v>548</v>
+        <v>1737</v>
       </c>
       <c r="N106" t="s">
-        <v>41</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1319</v>
+        <v>1389</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1320</v>
+        <v>232</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>743</v>
+        <v>1390</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>452</v>
@@ -40112,7 +40100,7 @@
         <v>19</v>
       </c>
       <c r="M108" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="N108" t="s">
         <v>41</v>
@@ -40120,16 +40108,16 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1322</v>
+        <v>1393</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1323</v>
+        <v>1394</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1324</v>
+        <v>1395</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>452</v>
@@ -40147,7 +40135,7 @@
         <v>2242</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>2255</v>
+        <v>2243</v>
       </c>
       <c r="K110" t="s">
         <v>2244</v>
@@ -40156,24 +40144,24 @@
         <v>19</v>
       </c>
       <c r="M110" t="s">
-        <v>1737</v>
+        <v>1396</v>
       </c>
       <c r="N110" t="s">
-        <v>481</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>232</v>
+        <v>1403</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>452</v>
@@ -40200,24 +40188,24 @@
         <v>19</v>
       </c>
       <c r="M112" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="N112" t="s">
-        <v>41</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1394</v>
+        <v>676</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>452</v>
@@ -40244,24 +40232,24 @@
         <v>19</v>
       </c>
       <c r="M114" t="s">
-        <v>1396</v>
+        <v>508</v>
       </c>
       <c r="N114" t="s">
-        <v>752</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1403</v>
+        <v>893</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>452</v>
@@ -40288,24 +40276,24 @@
         <v>19</v>
       </c>
       <c r="M116" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N116" t="s">
-        <v>464</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>676</v>
+        <v>574</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>452</v>
@@ -40322,9 +40310,6 @@
       <c r="I118" s="8" t="s">
         <v>2242</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>2243</v>
-      </c>
       <c r="K118" t="s">
         <v>2244</v>
       </c>
@@ -40332,24 +40317,24 @@
         <v>19</v>
       </c>
       <c r="M118" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N118" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1408</v>
+        <v>1464</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>893</v>
+        <v>275</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1409</v>
+        <v>276</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>452</v>
@@ -40376,24 +40361,24 @@
         <v>19</v>
       </c>
       <c r="M120" t="s">
-        <v>517</v>
+        <v>270</v>
       </c>
       <c r="N120" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1411</v>
+        <v>1466</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1412</v>
+        <v>1467</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>452</v>
@@ -40410,6 +40395,9 @@
       <c r="I122" s="8" t="s">
         <v>2242</v>
       </c>
+      <c r="J122" s="8" t="s">
+        <v>2314</v>
+      </c>
       <c r="K122" t="s">
         <v>2244</v>
       </c>
@@ -40417,24 +40405,24 @@
         <v>19</v>
       </c>
       <c r="M122" t="s">
-        <v>500</v>
+        <v>1468</v>
       </c>
       <c r="N122" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>276</v>
+        <v>1475</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>452</v>
@@ -40452,7 +40440,7 @@
         <v>2242</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>2243</v>
+        <v>2255</v>
       </c>
       <c r="K124" t="s">
         <v>2244</v>
@@ -40461,24 +40449,24 @@
         <v>19</v>
       </c>
       <c r="M124" t="s">
-        <v>270</v>
+        <v>791</v>
       </c>
       <c r="N124" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>579</v>
+        <v>1478</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>452</v>
@@ -40496,7 +40484,7 @@
         <v>2242</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>2318</v>
+        <v>2255</v>
       </c>
       <c r="K126" t="s">
         <v>2244</v>
@@ -40505,24 +40493,24 @@
         <v>19</v>
       </c>
       <c r="M126" t="s">
-        <v>1468</v>
+        <v>669</v>
       </c>
       <c r="N126" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1474</v>
+        <v>1488</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1475</v>
+        <v>189</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>452</v>
@@ -40540,7 +40528,7 @@
         <v>2242</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>2255</v>
+        <v>2243</v>
       </c>
       <c r="K128" t="s">
         <v>2244</v>
@@ -40549,24 +40537,24 @@
         <v>19</v>
       </c>
       <c r="M128" t="s">
-        <v>791</v>
+        <v>238</v>
       </c>
       <c r="N128" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>2320</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>1478</v>
-      </c>
       <c r="D130" s="8" t="s">
-        <v>1479</v>
+        <v>2321</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>452</v>
@@ -40593,24 +40581,24 @@
         <v>19</v>
       </c>
       <c r="M130" t="s">
-        <v>669</v>
+        <v>1396</v>
       </c>
       <c r="N130" t="s">
-        <v>456</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1488</v>
+        <v>1522</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>188</v>
+        <v>1523</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>189</v>
+        <v>1524</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>452</v>
@@ -40637,24 +40625,24 @@
         <v>19</v>
       </c>
       <c r="M132" t="s">
-        <v>238</v>
+        <v>581</v>
       </c>
       <c r="N132" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>2323</v>
+        <v>1526</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>2324</v>
+        <v>1527</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2325</v>
+        <v>1528</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>452</v>
@@ -40672,7 +40660,7 @@
         <v>2242</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>2255</v>
+        <v>2243</v>
       </c>
       <c r="K134" t="s">
         <v>2244</v>
@@ -40681,24 +40669,24 @@
         <v>19</v>
       </c>
       <c r="M134" t="s">
-        <v>1396</v>
+        <v>2212</v>
       </c>
       <c r="N134" t="s">
-        <v>2212</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1522</v>
+        <v>1537</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>1523</v>
+        <v>183</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>452</v>
@@ -40725,24 +40713,24 @@
         <v>19</v>
       </c>
       <c r="M136" t="s">
-        <v>581</v>
+        <v>1539</v>
       </c>
       <c r="N136" t="s">
-        <v>82</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1526</v>
+        <v>1551</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1527</v>
+        <v>88</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1528</v>
+        <v>1552</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>452</v>
@@ -40760,7 +40748,7 @@
         <v>2242</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>2243</v>
+        <v>2314</v>
       </c>
       <c r="K138" t="s">
         <v>2244</v>
@@ -40769,24 +40757,24 @@
         <v>19</v>
       </c>
       <c r="M138" t="s">
-        <v>2212</v>
+        <v>1372</v>
       </c>
       <c r="N138" t="s">
-        <v>752</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1537</v>
+        <v>1554</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>183</v>
+        <v>574</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1538</v>
+        <v>1555</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>452</v>
@@ -40813,24 +40801,24 @@
         <v>19</v>
       </c>
       <c r="M140" t="s">
-        <v>1539</v>
+        <v>500</v>
       </c>
       <c r="N140" t="s">
-        <v>480</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1551</v>
+        <v>1593</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1552</v>
+        <v>1594</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>452</v>
@@ -40848,7 +40836,7 @@
         <v>2242</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>2318</v>
+        <v>2255</v>
       </c>
       <c r="K142" t="s">
         <v>2244</v>
@@ -40857,7 +40845,7 @@
         <v>19</v>
       </c>
       <c r="M142" t="s">
-        <v>1372</v>
+        <v>513</v>
       </c>
       <c r="N142" t="s">
         <v>41</v>
@@ -40865,16 +40853,16 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1554</v>
+        <v>1597</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>574</v>
+        <v>1598</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1555</v>
+        <v>1599</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>452</v>
@@ -40901,24 +40889,24 @@
         <v>19</v>
       </c>
       <c r="M144" t="s">
-        <v>500</v>
+        <v>1071</v>
       </c>
       <c r="N144" t="s">
-        <v>41</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>275</v>
+        <v>1602</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1594</v>
+        <v>1130</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>452</v>
@@ -40936,7 +40924,7 @@
         <v>2242</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>2255</v>
+        <v>2243</v>
       </c>
       <c r="K146" t="s">
         <v>2244</v>
@@ -40945,24 +40933,24 @@
         <v>19</v>
       </c>
       <c r="M146" t="s">
-        <v>513</v>
+        <v>85</v>
       </c>
       <c r="N146" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1597</v>
+        <v>1641</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1598</v>
+        <v>1119</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1599</v>
+        <v>1642</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>452</v>
@@ -40980,7 +40968,7 @@
         <v>2242</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>2243</v>
+        <v>2314</v>
       </c>
       <c r="K148" t="s">
         <v>2244</v>
@@ -40989,24 +40977,24 @@
         <v>19</v>
       </c>
       <c r="M148" t="s">
-        <v>1071</v>
+        <v>869</v>
       </c>
       <c r="N148" t="s">
-        <v>480</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1601</v>
+        <v>1647</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>1602</v>
+        <v>1648</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1130</v>
+        <v>1082</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>452</v>
@@ -41033,24 +41021,24 @@
         <v>19</v>
       </c>
       <c r="M150" t="s">
-        <v>85</v>
+        <v>1009</v>
       </c>
       <c r="N150" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1641</v>
+        <v>1669</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1119</v>
+        <v>1305</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1642</v>
+        <v>1667</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>452</v>
@@ -41068,7 +41056,7 @@
         <v>2242</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>2318</v>
+        <v>2243</v>
       </c>
       <c r="K152" t="s">
         <v>2244</v>
@@ -41077,24 +41065,24 @@
         <v>19</v>
       </c>
       <c r="M152" t="s">
-        <v>869</v>
+        <v>85</v>
       </c>
       <c r="N152" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1647</v>
+        <v>1665</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1648</v>
+        <v>1666</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1082</v>
+        <v>1667</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>452</v>
@@ -41121,24 +41109,24 @@
         <v>19</v>
       </c>
       <c r="M154" t="s">
-        <v>1009</v>
+        <v>650</v>
       </c>
       <c r="N154" t="s">
-        <v>481</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1305</v>
+        <v>219</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>452</v>
@@ -41165,24 +41153,24 @@
         <v>19</v>
       </c>
       <c r="M156" t="s">
-        <v>85</v>
+        <v>591</v>
       </c>
       <c r="N156" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>2337</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>1666</v>
-      </c>
       <c r="D158" s="8" t="s">
-        <v>1667</v>
+        <v>2338</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>452</v>
@@ -41209,24 +41197,24 @@
         <v>19</v>
       </c>
       <c r="M158" t="s">
-        <v>650</v>
+        <v>2339</v>
       </c>
       <c r="N158" t="s">
-        <v>82</v>
+        <v>682</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>219</v>
+        <v>1186</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>452</v>
@@ -41253,7 +41241,7 @@
         <v>19</v>
       </c>
       <c r="M160" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="N160" t="s">
         <v>179</v>
@@ -41261,16 +41249,16 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="7" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>2340</v>
+        <v>1682</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>2341</v>
+        <v>241</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>2342</v>
+        <v>73</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>452</v>
@@ -41297,24 +41285,24 @@
         <v>19</v>
       </c>
       <c r="M162" t="s">
-        <v>2343</v>
+        <v>238</v>
       </c>
       <c r="N162" t="s">
-        <v>682</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="7" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1677</v>
+        <v>1689</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>1186</v>
+        <v>1690</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>452</v>
@@ -41341,24 +41329,24 @@
         <v>19</v>
       </c>
       <c r="M164" t="s">
-        <v>571</v>
+        <v>1618</v>
       </c>
       <c r="N164" t="s">
-        <v>179</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="7" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>1682</v>
+        <v>1693</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>241</v>
+        <v>676</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>73</v>
+        <v>1691</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>452</v>
@@ -41385,24 +41373,24 @@
         <v>19</v>
       </c>
       <c r="M166" t="s">
-        <v>238</v>
+        <v>1618</v>
       </c>
       <c r="N166" t="s">
-        <v>35</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="7" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>1690</v>
+        <v>275</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>452</v>
@@ -41429,24 +41417,24 @@
         <v>19</v>
       </c>
       <c r="M168" t="s">
-        <v>1618</v>
+        <v>631</v>
       </c>
       <c r="N168" t="s">
-        <v>470</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="7" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>676</v>
+        <v>1699</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1691</v>
+        <v>1700</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>452</v>
@@ -41473,24 +41461,24 @@
         <v>19</v>
       </c>
       <c r="M170" t="s">
-        <v>1618</v>
+        <v>85</v>
       </c>
       <c r="N170" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="7" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1695</v>
+        <v>1708</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>275</v>
+        <v>1341</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>452</v>
@@ -41517,24 +41505,24 @@
         <v>19</v>
       </c>
       <c r="M172" t="s">
-        <v>631</v>
+        <v>2347</v>
       </c>
       <c r="N172" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="7" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1698</v>
+        <v>1711</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1699</v>
+        <v>1712</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1700</v>
+        <v>1713</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>452</v>
@@ -41561,24 +41549,24 @@
         <v>19</v>
       </c>
       <c r="M174" t="s">
-        <v>85</v>
+        <v>581</v>
       </c>
       <c r="N174" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="7" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>1341</v>
+        <v>183</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>452</v>
@@ -41605,24 +41593,24 @@
         <v>19</v>
       </c>
       <c r="M176" t="s">
-        <v>2351</v>
+        <v>581</v>
       </c>
       <c r="N176" t="s">
-        <v>480</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="7" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>452</v>
@@ -41649,24 +41637,24 @@
         <v>19</v>
       </c>
       <c r="M178" t="s">
-        <v>581</v>
+        <v>1071</v>
       </c>
       <c r="N178" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="7" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1713</v>
+        <v>105</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>452</v>
@@ -41684,7 +41672,7 @@
         <v>2242</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>2243</v>
+        <v>2292</v>
       </c>
       <c r="K180" t="s">
         <v>2244</v>
@@ -41693,7 +41681,7 @@
         <v>19</v>
       </c>
       <c r="M180" t="s">
-        <v>581</v>
+        <v>85</v>
       </c>
       <c r="N180" t="s">
         <v>82</v>
@@ -41701,16 +41689,16 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="7" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>1718</v>
+        <v>108</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1719</v>
+        <v>105</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>452</v>
@@ -41737,24 +41725,24 @@
         <v>19</v>
       </c>
       <c r="M182" t="s">
-        <v>1071</v>
+        <v>85</v>
       </c>
       <c r="N182" t="s">
-        <v>481</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="7" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>104</v>
+        <v>1453</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>105</v>
+        <v>1736</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>452</v>
@@ -41772,7 +41760,7 @@
         <v>2242</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>2296</v>
+        <v>2243</v>
       </c>
       <c r="K184" t="s">
         <v>2244</v>
@@ -41781,24 +41769,24 @@
         <v>19</v>
       </c>
       <c r="M184" t="s">
-        <v>85</v>
+        <v>738</v>
       </c>
       <c r="N184" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="7" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>108</v>
+        <v>1505</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>105</v>
+        <v>1741</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>452</v>
@@ -41825,24 +41813,24 @@
         <v>19</v>
       </c>
       <c r="M186" t="s">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="N186" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="7" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>1453</v>
+        <v>1740</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>452</v>
@@ -41869,24 +41857,24 @@
         <v>19</v>
       </c>
       <c r="M188" t="s">
-        <v>738</v>
+        <v>1000</v>
       </c>
       <c r="N188" t="s">
-        <v>21</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>1743</v>
+        <v>1757</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>1505</v>
+        <v>1758</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1741</v>
+        <v>1759</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>452</v>
@@ -41913,24 +41901,24 @@
         <v>19</v>
       </c>
       <c r="M190" t="s">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N190" t="s">
-        <v>481</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="7" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>1739</v>
+        <v>1788</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>1740</v>
+        <v>294</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1741</v>
+        <v>295</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>452</v>
@@ -41954,27 +41942,27 @@
         <v>2244</v>
       </c>
       <c r="L192" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M192" t="s">
-        <v>1000</v>
+        <v>346</v>
       </c>
       <c r="N192" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>1757</v>
+        <v>1790</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>1758</v>
+        <v>53</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>1759</v>
+        <v>295</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>452</v>
@@ -41998,27 +41986,27 @@
         <v>2244</v>
       </c>
       <c r="L194" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M194" t="s">
-        <v>1350</v>
+        <v>306</v>
       </c>
       <c r="N194" t="s">
-        <v>1177</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>452</v>
@@ -42045,24 +42033,24 @@
         <v>80</v>
       </c>
       <c r="M196" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="N196" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="7" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>1790</v>
+        <v>1826</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>53</v>
+        <v>1827</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>295</v>
+        <v>1828</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>452</v>
@@ -42086,27 +42074,27 @@
         <v>2244</v>
       </c>
       <c r="L198" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M198" t="s">
-        <v>306</v>
+        <v>727</v>
       </c>
       <c r="N198" t="s">
-        <v>41</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>1796</v>
+        <v>1857</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>275</v>
+        <v>1858</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>410</v>
+        <v>1859</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>452</v>
@@ -42130,27 +42118,27 @@
         <v>2244</v>
       </c>
       <c r="L200" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M200" t="s">
-        <v>81</v>
+        <v>1350</v>
       </c>
       <c r="N200" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>1826</v>
+        <v>1861</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>1827</v>
+        <v>1862</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1828</v>
+        <v>1863</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>452</v>
@@ -42177,24 +42165,24 @@
         <v>19</v>
       </c>
       <c r="M202" t="s">
-        <v>727</v>
+        <v>1229</v>
       </c>
       <c r="N202" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>1857</v>
+        <v>1874</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>1858</v>
+        <v>1875</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>1859</v>
+        <v>1876</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>452</v>
@@ -42221,24 +42209,24 @@
         <v>19</v>
       </c>
       <c r="M204" t="s">
-        <v>1350</v>
+        <v>830</v>
       </c>
       <c r="N204" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>1861</v>
+        <v>1882</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>1862</v>
+        <v>1883</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1863</v>
+        <v>1884</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>452</v>
@@ -42265,97 +42253,9 @@
         <v>19</v>
       </c>
       <c r="M206" t="s">
-        <v>1229</v>
+        <v>636</v>
       </c>
       <c r="N206" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
-      <c r="A208" s="7" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H208" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I208" s="8" t="s">
-        <v>2242</v>
-      </c>
-      <c r="J208" s="8" t="s">
-        <v>2243</v>
-      </c>
-      <c r="K208" t="s">
-        <v>2244</v>
-      </c>
-      <c r="L208" t="s">
-        <v>19</v>
-      </c>
-      <c r="M208" t="s">
-        <v>830</v>
-      </c>
-      <c r="N208" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
-      <c r="A210" s="7" t="s">
-        <v>2368</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H210" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I210" s="8" t="s">
-        <v>2242</v>
-      </c>
-      <c r="J210" s="8" t="s">
-        <v>2243</v>
-      </c>
-      <c r="K210" t="s">
-        <v>2244</v>
-      </c>
-      <c r="L210" t="s">
-        <v>19</v>
-      </c>
-      <c r="M210" t="s">
-        <v>636</v>
-      </c>
-      <c r="N210" t="s">
         <v>480</v>
       </c>
     </row>
@@ -42567,10 +42467,6 @@
     <hyperlink ref="B204" r:id="rId204"/>
     <hyperlink ref="A206" r:id="rId205"/>
     <hyperlink ref="B206" r:id="rId206"/>
-    <hyperlink ref="A208" r:id="rId207"/>
-    <hyperlink ref="B208" r:id="rId208"/>
-    <hyperlink ref="A210" r:id="rId209"/>
-    <hyperlink ref="B210" r:id="rId210"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42651,7 +42547,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1940</v>
@@ -42675,10 +42571,10 @@
         <v>453</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K2" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -42692,7 +42588,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1949</v>
@@ -42716,10 +42612,10 @@
         <v>453</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K4" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -42733,7 +42629,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1983</v>
@@ -42757,10 +42653,10 @@
         <v>453</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K6" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -42774,7 +42670,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1988</v>
@@ -42798,10 +42694,10 @@
         <v>453</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K8" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -42815,7 +42711,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1994</v>
@@ -42839,10 +42735,10 @@
         <v>453</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K10" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -42856,7 +42752,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2011</v>
@@ -42880,16 +42776,16 @@
         <v>453</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K12" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="N12" t="s">
         <v>480</v>
@@ -42897,7 +42793,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>2020</v>
@@ -42921,10 +42817,10 @@
         <v>453</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K14" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -42938,7 +42834,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2016</v>
@@ -42962,10 +42858,10 @@
         <v>453</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K16" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -42979,7 +42875,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2031</v>
@@ -43003,10 +42899,10 @@
         <v>453</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K18" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -43020,7 +42916,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2037</v>
@@ -43044,10 +42940,10 @@
         <v>453</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K20" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -43061,7 +42957,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2042</v>
@@ -43085,10 +42981,10 @@
         <v>453</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K22" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -43102,7 +42998,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>2071</v>
@@ -43126,10 +43022,10 @@
         <v>453</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K24" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -43143,7 +43039,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>2075</v>
@@ -43167,10 +43063,10 @@
         <v>453</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K26" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -43184,7 +43080,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2119</v>
@@ -43208,10 +43104,10 @@
         <v>453</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K28" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -43225,7 +43121,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2125</v>
@@ -43249,10 +43145,10 @@
         <v>453</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K30" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L30" t="s">
         <v>19</v>
@@ -43266,7 +43162,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>2132</v>
@@ -43290,10 +43186,10 @@
         <v>453</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K32" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
@@ -43307,16 +43203,16 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>452</v>
@@ -43331,10 +43227,10 @@
         <v>453</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K34" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
@@ -43348,7 +43244,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>2168</v>
@@ -43372,10 +43268,10 @@
         <v>453</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K36" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -43389,16 +43285,16 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>506</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>452</v>
@@ -43413,10 +43309,10 @@
         <v>453</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K38" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L38" t="s">
         <v>338</v>
@@ -43430,7 +43326,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="7" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>2171</v>
@@ -43454,10 +43350,10 @@
         <v>453</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K40" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -43471,7 +43367,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="7" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>2174</v>
@@ -43495,10 +43391,10 @@
         <v>453</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K42" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
@@ -43512,7 +43408,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="7" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>2193</v>
@@ -43536,10 +43432,10 @@
         <v>453</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K44" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L44" t="s">
         <v>19</v>
@@ -43553,7 +43449,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>2210</v>
@@ -43577,10 +43473,10 @@
         <v>453</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K46" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L46" t="s">
         <v>19</v>
